--- a/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="524">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1602,6 +1602,9 @@
   </si>
   <si>
     <t>UT(0-3-1)</t>
+  </si>
+  <si>
+    <t>UT(0-2-45)</t>
   </si>
 </sst>
 </file>
@@ -2315,8 +2318,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K681" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K681"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K682"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2645,12 +2648,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K681"/>
+  <dimension ref="A2:K682"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3720" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A629" activePane="bottomLeft"/>
       <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="E635" sqref="E635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2816,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.204899999999782</v>
+        <v>37.79589999999979</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16763,41 +16766,44 @@
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
       <c r="K634" s="49">
-        <v>44716</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B635" s="20"/>
-      <c r="C635" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D635" s="39"/>
-      <c r="E635" s="52"/>
+      <c r="A635" s="40"/>
+      <c r="B635" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C635" s="13"/>
+      <c r="D635" s="39">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E635" s="52">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>37.79589999999979</v>
+      </c>
       <c r="F635" s="20"/>
-      <c r="G635" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="20"/>
+      <c r="K635" s="49"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B636" s="20" t="s">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="C636" s="13">
         <v>1.25</v>
       </c>
       <c r="D636" s="39">
-        <v>2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E636" s="52"/>
       <c r="F636" s="20"/>
@@ -16808,34 +16814,38 @@
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="40"/>
+      <c r="A637" s="40">
+        <v>44713</v>
+      </c>
       <c r="B637" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C637" s="13"/>
-      <c r="D637" s="39"/>
+        <v>74</v>
+      </c>
+      <c r="C637" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D637" s="39">
+        <v>2</v>
+      </c>
       <c r="E637" s="52"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H637" s="39">
-        <v>3</v>
-      </c>
+      <c r="G637" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C638" s="13"/>
       <c r="D638" s="39"/>
@@ -16846,18 +16856,16 @@
         <v/>
       </c>
       <c r="H638" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -16867,17 +16875,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H639" s="39"/>
+      <c r="H639" s="39">
+        <v>2</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
       <c r="K639" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -16887,71 +16897,67 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H640" s="39">
-        <v>1</v>
-      </c>
+      <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="49">
-        <v>44774</v>
+      <c r="K640" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
-        <v>522</v>
+        <v>60</v>
       </c>
       <c r="C641" s="13"/>
-      <c r="D641" s="39">
-        <v>0.377</v>
-      </c>
+      <c r="D641" s="39"/>
       <c r="E641" s="52"/>
       <c r="F641" s="20"/>
       <c r="G641" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H641" s="39"/>
+      <c r="H641" s="39">
+        <v>1</v>
+      </c>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="49"/>
+      <c r="K641" s="49">
+        <v>44774</v>
+      </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A642" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C642" s="13">
-        <v>1.25</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C642" s="13"/>
       <c r="D642" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>0.377</v>
       </c>
       <c r="E642" s="52"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20"/>
+      <c r="K642" s="49"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="C643" s="13">
         <v>1.25</v>
       </c>
       <c r="D643" s="39">
-        <v>1</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E643" s="52"/>
       <c r="F643" s="20"/>
@@ -16962,66 +16968,66 @@
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="49">
-        <v>44784</v>
-      </c>
+      <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A644" s="40"/>
+      <c r="A644" s="40">
+        <v>44774</v>
+      </c>
       <c r="B644" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="C644" s="13"/>
+        <v>521</v>
+      </c>
+      <c r="C644" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D644" s="39">
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="E644" s="52"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G644" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="49"/>
+      <c r="K644" s="49">
+        <v>44784</v>
+      </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="C645" s="13">
-        <v>1.25</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C645" s="13"/>
       <c r="D645" s="39">
-        <v>2.3000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E645" s="52"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="49"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B646" s="20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C646" s="13">
         <v>1.25</v>
       </c>
       <c r="D646" s="39">
-        <v>2</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E646" s="52"/>
       <c r="F646" s="20"/>
@@ -17032,173 +17038,179 @@
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20" t="s">
-        <v>518</v>
-      </c>
+      <c r="K646" s="20"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="40"/>
+      <c r="A647" s="40">
+        <v>44835</v>
+      </c>
       <c r="B647" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="C647" s="13"/>
+        <v>517</v>
+      </c>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D647" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="E647" s="52"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="20" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C648" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D648" s="39"/>
+        <v>519</v>
+      </c>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E648" s="52"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H648" s="39">
-        <v>1</v>
-      </c>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="49">
-        <v>44867</v>
-      </c>
+      <c r="K648" s="20"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="40"/>
+      <c r="A649" s="40">
+        <v>44866</v>
+      </c>
       <c r="B649" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C649" s="13"/>
-      <c r="D649" s="39">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D649" s="39"/>
       <c r="E649" s="52"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H649" s="39"/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H649" s="39">
+        <v>1</v>
+      </c>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
       <c r="K649" s="49">
-        <v>44879</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C650" s="13"/>
-      <c r="D650" s="39"/>
+      <c r="D650" s="39">
+        <v>1</v>
+      </c>
       <c r="E650" s="52"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H650" s="39">
-        <v>1</v>
-      </c>
+      <c r="H650" s="39"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
       <c r="K650" s="49">
-        <v>44890</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
-        <v>516</v>
+        <v>60</v>
       </c>
       <c r="C651" s="13"/>
-      <c r="D651" s="39">
-        <v>0.17500000000000002</v>
-      </c>
+      <c r="D651" s="39"/>
       <c r="E651" s="52"/>
       <c r="F651" s="20"/>
       <c r="G651" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H651" s="39"/>
+      <c r="H651" s="39">
+        <v>1</v>
+      </c>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="49"/>
+      <c r="K651" s="49">
+        <v>44890</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C652" s="13">
-        <v>1.25</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C652" s="13"/>
       <c r="D652" s="39">
-        <v>6.5</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E652" s="52"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K652" s="49"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="40"/>
+      <c r="A653" s="40">
+        <v>44896</v>
+      </c>
       <c r="B653" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C653" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="C653" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D653" s="39">
-        <v>0.10600000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="E653" s="52"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G653" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B654" s="20"/>
+      <c r="A654" s="40"/>
+      <c r="B654" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="C654" s="13"/>
-      <c r="D654" s="39"/>
+      <c r="D654" s="39">
+        <v>0.10600000000000001</v>
+      </c>
       <c r="E654" s="52"/>
       <c r="F654" s="20"/>
       <c r="G654" s="13" t="str">
@@ -17211,34 +17223,30 @@
       <c r="K654" s="20"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B655" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C655" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A655" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B655" s="20"/>
+      <c r="C655" s="13"/>
       <c r="D655" s="39"/>
       <c r="E655" s="52"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="49">
-        <v>44929</v>
-      </c>
+      <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B656" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B656" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C656" s="13">
         <v>1.25</v>
       </c>
@@ -17252,15 +17260,15 @@
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20"/>
+      <c r="K656" s="49">
+        <v>44929</v>
+      </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B657" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B657" s="20"/>
       <c r="C657" s="13">
         <v>1.25</v>
       </c>
@@ -17271,94 +17279,94 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H657" s="39">
-        <v>1</v>
-      </c>
+      <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="49">
-        <v>45001</v>
-      </c>
+      <c r="K657" s="20"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B658" s="20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C658" s="13">
         <v>1.25</v>
       </c>
-      <c r="D658" s="39">
-        <v>3</v>
-      </c>
+      <c r="D658" s="39"/>
       <c r="E658" s="52"/>
       <c r="F658" s="20"/>
       <c r="G658" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H658" s="39"/>
+      <c r="H658" s="39">
+        <v>1</v>
+      </c>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20" t="s">
-        <v>99</v>
+      <c r="K658" s="49">
+        <v>45001</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B659" s="20" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C659" s="13">
         <v>1.25</v>
       </c>
-      <c r="D659" s="39"/>
+      <c r="D659" s="39">
+        <v>3</v>
+      </c>
       <c r="E659" s="52"/>
       <c r="F659" s="20"/>
       <c r="G659" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H659" s="39">
-        <v>3</v>
-      </c>
+      <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
       <c r="K659" s="20" t="s">
-        <v>513</v>
+        <v>99</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B660" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B660" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C660" s="13">
         <v>1.25</v>
       </c>
       <c r="D660" s="39"/>
-      <c r="E660" s="9"/>
+      <c r="E660" s="52"/>
       <c r="F660" s="20"/>
       <c r="G660" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H660" s="39"/>
+      <c r="H660" s="39">
+        <v>3</v>
+      </c>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="20"/>
+      <c r="K660" s="20" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B661" s="20" t="s">
-        <v>131</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B661" s="20"/>
       <c r="C661" s="13">
         <v>1.25</v>
       </c>
@@ -17369,36 +17377,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H661" s="39">
-        <v>3</v>
-      </c>
+      <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20" t="s">
-        <v>515</v>
-      </c>
+      <c r="K661" s="20"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B662" s="20"/>
-      <c r="C662" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B662" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C662" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H662" s="39"/>
+      <c r="G662" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H662" s="39">
+        <v>3</v>
+      </c>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
+      <c r="K662" s="20" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17416,7 +17428,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17434,7 +17446,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17452,7 +17464,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17470,7 +17482,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17488,7 +17500,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17506,7 +17518,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17524,7 +17536,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17542,7 +17554,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17560,7 +17572,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17578,7 +17590,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17596,7 +17608,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17614,7 +17626,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17632,7 +17644,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17650,7 +17662,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17667,7 +17679,9 @@
       <c r="K677" s="20"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40"/>
+      <c r="A678" s="40">
+        <v>45597</v>
+      </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
       <c r="D678" s="39"/>
@@ -17715,20 +17729,36 @@
       <c r="K680" s="20"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="41"/>
-      <c r="B681" s="15"/>
-      <c r="C681" s="42"/>
-      <c r="D681" s="43"/>
+      <c r="A681" s="40"/>
+      <c r="B681" s="20"/>
+      <c r="C681" s="13"/>
+      <c r="D681" s="39"/>
       <c r="E681" s="9"/>
-      <c r="F681" s="15"/>
-      <c r="G681" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H681" s="43"/>
+      <c r="F681" s="20"/>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H681" s="39"/>
       <c r="I681" s="9"/>
-      <c r="J681" s="12"/>
-      <c r="K681" s="15"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="20"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" s="41"/>
+      <c r="B682" s="15"/>
+      <c r="C682" s="42"/>
+      <c r="D682" s="43"/>
+      <c r="E682" s="9"/>
+      <c r="F682" s="15"/>
+      <c r="G682" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="43"/>
+      <c r="I682" s="9"/>
+      <c r="J682" s="12"/>
+      <c r="K682" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17840,14 +17870,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.377</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -17896,7 +17926,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.43789999999979</v>
+        <v>115.02889999999979</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="525">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1605,6 +1605,9 @@
   </si>
   <si>
     <t>UT(0-2-45)</t>
+  </si>
+  <si>
+    <t>9/15, 22/2023</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K682" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K682"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K683" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K683"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2648,12 +2651,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K682"/>
+  <dimension ref="A2:K683"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A629" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A656" activePane="bottomLeft"/>
       <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="E635" sqref="E635"/>
+      <selection pane="bottomLeft" activeCell="K665" sqref="K665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2819,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.79589999999979</v>
+        <v>36.968899999999792</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2826,7 +2829,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.233000000000004</v>
+        <v>78.483000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16742,92 +16745,91 @@
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
       <c r="K633" s="49">
-        <v>44837</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C634" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D634" s="39"/>
-      <c r="E634" s="52"/>
+        <v>123</v>
+      </c>
+      <c r="C634" s="13"/>
+      <c r="D634" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="E634" s="52">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>36.968899999999792</v>
+      </c>
       <c r="F634" s="20"/>
-      <c r="G634" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="49">
-        <v>44657</v>
-      </c>
+      <c r="K634" s="49"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" s="40"/>
+      <c r="A635" s="40">
+        <v>44652</v>
+      </c>
       <c r="B635" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E635" s="52">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.79589999999979</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D635" s="39"/>
+      <c r="E635" s="52"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="49"/>
+      <c r="K635" s="49">
+        <v>44657</v>
+      </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A636" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="C636" s="13">
-        <v>1.25</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C636" s="13"/>
       <c r="D636" s="39">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E636" s="52"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E636" s="52">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>36.968899999999792</v>
+      </c>
       <c r="F636" s="20"/>
-      <c r="G636" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="49"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="C637" s="13">
         <v>1.25</v>
       </c>
       <c r="D637" s="39">
-        <v>2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E637" s="52"/>
       <c r="F637" s="20"/>
@@ -16838,34 +16840,38 @@
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="40"/>
+      <c r="A638" s="40">
+        <v>44713</v>
+      </c>
       <c r="B638" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
+        <v>74</v>
+      </c>
+      <c r="C638" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D638" s="39">
+        <v>2</v>
+      </c>
       <c r="E638" s="52"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H638" s="39">
-        <v>3</v>
-      </c>
+      <c r="G638" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="20"/>
+      <c r="K638" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -16876,18 +16882,16 @@
         <v/>
       </c>
       <c r="H639" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -16897,17 +16901,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H640" s="39"/>
+      <c r="H640" s="39">
+        <v>2</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
       <c r="K640" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -16917,71 +16923,67 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H641" s="39">
-        <v>1</v>
-      </c>
+      <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="49">
-        <v>44774</v>
+      <c r="K641" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
-        <v>522</v>
+        <v>60</v>
       </c>
       <c r="C642" s="13"/>
-      <c r="D642" s="39">
-        <v>0.377</v>
-      </c>
+      <c r="D642" s="39"/>
       <c r="E642" s="52"/>
       <c r="F642" s="20"/>
       <c r="G642" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H642" s="39"/>
+      <c r="H642" s="39">
+        <v>1</v>
+      </c>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="49"/>
+      <c r="K642" s="49">
+        <v>44774</v>
+      </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C643" s="13">
-        <v>1.25</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C643" s="13"/>
       <c r="D643" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>0.377</v>
       </c>
       <c r="E643" s="52"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
-      <c r="K643" s="20"/>
+      <c r="K643" s="49"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B644" s="20" t="s">
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="C644" s="13">
         <v>1.25</v>
       </c>
       <c r="D644" s="39">
-        <v>1</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="E644" s="52"/>
       <c r="F644" s="20"/>
@@ -16992,66 +16994,66 @@
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="49">
-        <v>44784</v>
-      </c>
+      <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A645" s="40"/>
+      <c r="A645" s="40">
+        <v>44774</v>
+      </c>
       <c r="B645" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="C645" s="13"/>
+        <v>521</v>
+      </c>
+      <c r="C645" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D645" s="39">
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="E645" s="52"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="49"/>
+      <c r="K645" s="49">
+        <v>44784</v>
+      </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="C646" s="13">
-        <v>1.25</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C646" s="13"/>
       <c r="D646" s="39">
-        <v>2.3000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E646" s="52"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="49"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C647" s="13">
         <v>1.25</v>
       </c>
       <c r="D647" s="39">
-        <v>2</v>
+        <v>2.3000000000000007E-2</v>
       </c>
       <c r="E647" s="52"/>
       <c r="F647" s="20"/>
@@ -17062,173 +17064,179 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20" t="s">
-        <v>518</v>
-      </c>
+      <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="40"/>
+      <c r="A648" s="40">
+        <v>44835</v>
+      </c>
       <c r="B648" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="C648" s="13"/>
+        <v>517</v>
+      </c>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D648" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="E648" s="52"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="20" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C649" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D649" s="39"/>
+        <v>519</v>
+      </c>
+      <c r="C649" s="13"/>
+      <c r="D649" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E649" s="52"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H649" s="39">
-        <v>1</v>
-      </c>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="49">
-        <v>44867</v>
-      </c>
+      <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" s="40"/>
+      <c r="A650" s="40">
+        <v>44866</v>
+      </c>
       <c r="B650" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C650" s="13"/>
-      <c r="D650" s="39">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C650" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D650" s="39"/>
       <c r="E650" s="52"/>
       <c r="F650" s="20"/>
-      <c r="G650" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H650" s="39"/>
+      <c r="G650" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H650" s="39">
+        <v>1</v>
+      </c>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
       <c r="K650" s="49">
-        <v>44879</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C651" s="13"/>
-      <c r="D651" s="39"/>
+      <c r="D651" s="39">
+        <v>1</v>
+      </c>
       <c r="E651" s="52"/>
       <c r="F651" s="20"/>
       <c r="G651" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H651" s="39">
-        <v>1</v>
-      </c>
+      <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
       <c r="K651" s="49">
-        <v>44890</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
-        <v>516</v>
+        <v>60</v>
       </c>
       <c r="C652" s="13"/>
-      <c r="D652" s="39">
-        <v>0.17500000000000002</v>
-      </c>
+      <c r="D652" s="39"/>
       <c r="E652" s="52"/>
       <c r="F652" s="20"/>
       <c r="G652" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H652" s="39"/>
+      <c r="H652" s="39">
+        <v>1</v>
+      </c>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="49"/>
+      <c r="K652" s="49">
+        <v>44890</v>
+      </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C653" s="13">
-        <v>1.25</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C653" s="13"/>
       <c r="D653" s="39">
-        <v>6.5</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E653" s="52"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G653" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K653" s="49"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40"/>
+      <c r="A654" s="40">
+        <v>44896</v>
+      </c>
       <c r="B654" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C654" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="C654" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D654" s="39">
-        <v>0.10600000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="E654" s="52"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G654" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
-      <c r="K654" s="20"/>
+      <c r="K654" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B655" s="20"/>
+      <c r="A655" s="40"/>
+      <c r="B655" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="C655" s="13"/>
-      <c r="D655" s="39"/>
+      <c r="D655" s="39">
+        <v>0.10600000000000001</v>
+      </c>
       <c r="E655" s="52"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13" t="str">
@@ -17241,34 +17249,30 @@
       <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B656" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C656" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A656" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B656" s="20"/>
+      <c r="C656" s="13"/>
       <c r="D656" s="39"/>
       <c r="E656" s="52"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="49">
-        <v>44929</v>
-      </c>
+      <c r="K656" s="20"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B657" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B657" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C657" s="13">
         <v>1.25</v>
       </c>
@@ -17282,15 +17286,15 @@
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="20"/>
+      <c r="K657" s="49">
+        <v>44929</v>
+      </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B658" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B658" s="20"/>
       <c r="C658" s="13">
         <v>1.25</v>
       </c>
@@ -17301,94 +17305,94 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H658" s="39">
-        <v>1</v>
-      </c>
+      <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="49">
-        <v>45001</v>
-      </c>
+      <c r="K658" s="20"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B659" s="20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C659" s="13">
         <v>1.25</v>
       </c>
-      <c r="D659" s="39">
-        <v>3</v>
-      </c>
+      <c r="D659" s="39"/>
       <c r="E659" s="52"/>
       <c r="F659" s="20"/>
       <c r="G659" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H659" s="39"/>
+      <c r="H659" s="39">
+        <v>1</v>
+      </c>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
-      <c r="K659" s="20" t="s">
-        <v>99</v>
+      <c r="K659" s="49">
+        <v>45001</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B660" s="20" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C660" s="13">
         <v>1.25</v>
       </c>
-      <c r="D660" s="39"/>
+      <c r="D660" s="39">
+        <v>3</v>
+      </c>
       <c r="E660" s="52"/>
       <c r="F660" s="20"/>
       <c r="G660" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H660" s="39">
-        <v>3</v>
-      </c>
+      <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
       <c r="K660" s="20" t="s">
-        <v>513</v>
+        <v>99</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B661" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B661" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C661" s="13">
         <v>1.25</v>
       </c>
       <c r="D661" s="39"/>
-      <c r="E661" s="9"/>
+      <c r="E661" s="52"/>
       <c r="F661" s="20"/>
       <c r="G661" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H661" s="39"/>
+      <c r="H661" s="39">
+        <v>3</v>
+      </c>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
-      <c r="K661" s="20"/>
+      <c r="K661" s="20" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B662" s="20" t="s">
-        <v>131</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B662" s="20"/>
       <c r="C662" s="13">
         <v>1.25</v>
       </c>
@@ -17399,45 +17403,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H662" s="39">
-        <v>3</v>
-      </c>
+      <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20" t="s">
-        <v>515</v>
-      </c>
+      <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H663" s="39"/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H663" s="39">
+        <v>3</v>
+      </c>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20"/>
+      <c r="K663" s="20" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B664" s="20"/>
-      <c r="C664" s="13"/>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
@@ -17446,11 +17456,15 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B665" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B665" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C665" s="13"/>
-      <c r="D665" s="39"/>
+      <c r="D665" s="39">
+        <v>2</v>
+      </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="13" t="str">
@@ -17460,11 +17474,13 @@
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="20" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17482,7 +17498,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17500,7 +17516,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17518,7 +17534,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17536,7 +17552,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17554,7 +17570,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17572,7 +17588,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17590,7 +17606,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17608,7 +17624,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17626,7 +17642,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17644,7 +17660,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17662,7 +17678,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17680,7 +17696,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17697,7 +17713,9 @@
       <c r="K678" s="20"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A679" s="40"/>
+      <c r="A679" s="40">
+        <v>45597</v>
+      </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
       <c r="D679" s="39"/>
@@ -17745,20 +17763,36 @@
       <c r="K681" s="20"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="41"/>
-      <c r="B682" s="15"/>
-      <c r="C682" s="42"/>
-      <c r="D682" s="43"/>
+      <c r="A682" s="40"/>
+      <c r="B682" s="20"/>
+      <c r="C682" s="13"/>
+      <c r="D682" s="39"/>
       <c r="E682" s="9"/>
-      <c r="F682" s="15"/>
-      <c r="G682" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H682" s="43"/>
+      <c r="F682" s="20"/>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="39"/>
       <c r="I682" s="9"/>
-      <c r="J682" s="12"/>
-      <c r="K682" s="15"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="20"/>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A683" s="41"/>
+      <c r="B683" s="15"/>
+      <c r="C683" s="42"/>
+      <c r="D683" s="43"/>
+      <c r="E683" s="9"/>
+      <c r="F683" s="15"/>
+      <c r="G683" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="43"/>
+      <c r="I683" s="9"/>
+      <c r="J683" s="12"/>
+      <c r="K683" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17870,14 +17904,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.34399999999999997</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -17926,7 +17960,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.02889999999979</v>
+        <v>115.4518999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="531">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1614,6 +1614,18 @@
   </si>
   <si>
     <t>12/13,21/2023</t>
+  </si>
+  <si>
+    <t>UT(0-3-25)</t>
+  </si>
+  <si>
+    <t>UT(0-2-34)</t>
+  </si>
+  <si>
+    <t>UT(0-2-55)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
   </si>
 </sst>
 </file>
@@ -2327,8 +2339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K685" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K685"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K688" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K688"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2657,12 +2669,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K685"/>
+  <dimension ref="A2:K688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A650" activePane="bottomLeft"/>
       <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="K669" sqref="K669"/>
+      <selection pane="bottomLeft" activeCell="F670" sqref="F670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2837,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.718899999999792</v>
+        <v>39.459899999999777</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -16765,7 +16777,7 @@
       </c>
       <c r="E634" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.718899999999792</v>
+        <v>39.459899999999777</v>
       </c>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
@@ -16812,7 +16824,7 @@
       </c>
       <c r="E636" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.718899999999792</v>
+        <v>39.459899999999777</v>
       </c>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
@@ -17441,19 +17453,19 @@
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B664" s="20"/>
-      <c r="C664" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D664" s="39"/>
+      <c r="A664" s="40"/>
+      <c r="B664" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C664" s="13"/>
+      <c r="D664" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
@@ -17462,17 +17474,13 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B665" s="20" t="s">
-        <v>124</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B665" s="20"/>
       <c r="C665" s="13">
         <v>1.25</v>
       </c>
-      <c r="D665" s="39">
-        <v>2</v>
-      </c>
+      <c r="D665" s="39"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
       <c r="G665" s="13">
@@ -17482,106 +17490,118 @@
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20" t="s">
-        <v>524</v>
-      </c>
+      <c r="K665" s="20"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40"/>
+      <c r="A666" s="40">
+        <v>45170</v>
+      </c>
       <c r="B666" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C666" s="13"/>
-      <c r="D666" s="39"/>
+        <v>124</v>
+      </c>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D666" s="39">
+        <v>2</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H666" s="39">
-        <v>1</v>
-      </c>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="49">
-        <v>45196</v>
+      <c r="K666" s="20" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B667" s="20"/>
-      <c r="C667" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A667" s="40"/>
+      <c r="B667" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C667" s="13"/>
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H667" s="39"/>
+      <c r="G667" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H667" s="39">
+        <v>1</v>
+      </c>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="20"/>
+      <c r="K667" s="49">
+        <v>45196</v>
+      </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B668" s="20"/>
-      <c r="C668" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D668" s="39"/>
+      <c r="A668" s="40"/>
+      <c r="B668" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C668" s="13"/>
+      <c r="D668" s="39">
+        <v>0.36499999999999999</v>
+      </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="20"/>
+      <c r="K668" s="49"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B669" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C669" s="13"/>
-      <c r="D669" s="39"/>
+        <v>528</v>
+      </c>
+      <c r="C669" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D669" s="39">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G669" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20" t="s">
-        <v>526</v>
-      </c>
+      <c r="K669" s="20"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B670" s="20"/>
-      <c r="C670" s="13"/>
-      <c r="D670" s="39"/>
+      <c r="A670" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B670" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C670" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D670" s="39">
+        <v>0.42699999999999999</v>
+      </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G670" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
@@ -17590,9 +17610,11 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B671" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C671" s="13"/>
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
@@ -17604,15 +17626,19 @@
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20"/>
+      <c r="K671" s="20" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B672" s="20"/>
+      <c r="A672" s="40"/>
+      <c r="B672" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="C672" s="13"/>
-      <c r="D672" s="39"/>
+      <c r="D672" s="39">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
       <c r="G672" s="13" t="str">
@@ -17625,8 +17651,8 @@
       <c r="K672" s="20"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="40">
-        <v>45352</v>
+      <c r="A673" s="48" t="s">
+        <v>525</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17644,7 +17670,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17662,7 +17688,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17680,7 +17706,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17698,7 +17724,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17716,7 +17742,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17734,7 +17760,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17752,7 +17778,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17770,7 +17796,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17787,7 +17813,9 @@
       <c r="K681" s="20"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" s="40"/>
+      <c r="A682" s="40">
+        <v>45536</v>
+      </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
       <c r="D682" s="39"/>
@@ -17803,7 +17831,9 @@
       <c r="K682" s="20"/>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="40"/>
+      <c r="A683" s="40">
+        <v>45566</v>
+      </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
       <c r="D683" s="39"/>
@@ -17819,7 +17849,9 @@
       <c r="K683" s="20"/>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A684" s="40"/>
+      <c r="A684" s="40">
+        <v>45597</v>
+      </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
       <c r="D684" s="39"/>
@@ -17835,20 +17867,68 @@
       <c r="K684" s="20"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="41"/>
-      <c r="B685" s="15"/>
-      <c r="C685" s="42"/>
-      <c r="D685" s="43"/>
+      <c r="A685" s="40"/>
+      <c r="B685" s="20"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="39"/>
       <c r="E685" s="9"/>
-      <c r="F685" s="15"/>
-      <c r="G685" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H685" s="43"/>
+      <c r="F685" s="20"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="39"/>
       <c r="I685" s="9"/>
-      <c r="J685" s="12"/>
-      <c r="K685" s="15"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="20"/>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A686" s="40"/>
+      <c r="B686" s="20"/>
+      <c r="C686" s="13"/>
+      <c r="D686" s="39"/>
+      <c r="E686" s="9"/>
+      <c r="F686" s="20"/>
+      <c r="G686" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H686" s="39"/>
+      <c r="I686" s="9"/>
+      <c r="J686" s="11"/>
+      <c r="K686" s="20"/>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A687" s="40"/>
+      <c r="B687" s="20"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="39"/>
+      <c r="E687" s="9"/>
+      <c r="F687" s="20"/>
+      <c r="G687" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H687" s="39"/>
+      <c r="I687" s="9"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="20"/>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" s="41"/>
+      <c r="B688" s="15"/>
+      <c r="C688" s="42"/>
+      <c r="D688" s="43"/>
+      <c r="E688" s="9"/>
+      <c r="F688" s="15"/>
+      <c r="G688" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H688" s="43"/>
+      <c r="I688" s="9"/>
+      <c r="J688" s="12"/>
+      <c r="K688" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17959,15 +18039,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.7000000000000013E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -18016,7 +18094,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>121.9518999999998</v>
+        <v>120.69289999999978</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="534">
   <si>
     <t>PERIOD</t>
   </si>
@@ -161,9 +161,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMAPILIS ELVIRA </t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -1626,6 +1623,18 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-1-41)</t>
+  </si>
+  <si>
+    <t>DIMAPILIS ELVIRA S.</t>
+  </si>
+  <si>
+    <t>UT(0-4-54)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
   </si>
 </sst>
 </file>
@@ -2339,8 +2348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K688" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K688"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K690" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K690"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2669,12 +2678,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K688"/>
+  <dimension ref="A2:K690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A650" activePane="bottomLeft"/>
-      <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="F670" sqref="F670"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="F666" sqref="F666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -2718,7 +2727,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
@@ -2738,14 +2747,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
@@ -2837,7 +2846,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.459899999999777</v>
+        <v>38.356899999999769</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2874,7 +2883,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -2895,7 +2904,7 @@
         <v>36069</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -2915,13 +2924,13 @@
       <c r="I12" s="34"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39">
@@ -2943,7 +2952,7 @@
         <v>36100</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13">
         <v>1.25</v>
@@ -2961,13 +2970,13 @@
       <c r="I14" s="34"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -2983,7 +2992,7 @@
       <c r="I15" s="34"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2991,7 +3000,7 @@
         <v>36130</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -3009,13 +3018,13 @@
       <c r="I16" s="34"/>
       <c r="J16" s="11"/>
       <c r="K16" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39">
@@ -3034,7 +3043,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -3057,7 +3066,7 @@
         <v>36161</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -3075,13 +3084,13 @@
       <c r="I19" s="34"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -3097,13 +3106,13 @@
       <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -3123,7 +3132,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -3137,13 +3146,13 @@
       <c r="I22" s="34"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -3157,7 +3166,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,7 +3194,7 @@
         <v>36220</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3203,13 +3212,13 @@
       <c r="I25" s="34"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3225,13 +3234,13 @@
       <c r="I26" s="34"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39">
@@ -3247,7 +3256,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,7 +3264,7 @@
         <v>36251</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -3273,13 +3282,13 @@
       <c r="I28" s="34"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3295,13 +3304,13 @@
       <c r="I29" s="34"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39">
@@ -3317,13 +3326,13 @@
       <c r="I30" s="34"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -3345,7 +3354,7 @@
         <v>36281</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -3369,7 +3378,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39">
@@ -3385,13 +3394,13 @@
       <c r="I33" s="34"/>
       <c r="J33" s="11"/>
       <c r="K33" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -3413,7 +3422,7 @@
         <v>36312</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -3431,7 +3440,7 @@
       <c r="I35" s="34"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3439,7 +3448,7 @@
         <v>36342</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -3457,13 +3466,13 @@
       <c r="I36" s="34"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -3479,7 +3488,7 @@
       <c r="I37" s="34"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3487,7 +3496,7 @@
         <v>36373</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -3511,7 +3520,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39">
@@ -3533,7 +3542,7 @@
         <v>36404</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -3553,13 +3562,13 @@
       <c r="I40" s="34"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39">
@@ -3581,7 +3590,7 @@
         <v>36434</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -3605,7 +3614,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39">
@@ -3627,7 +3636,7 @@
         <v>36465</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -3651,7 +3660,7 @@
         <v>36495</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3669,13 +3678,13 @@
       <c r="I45" s="34"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3697,7 +3706,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3713,13 +3722,13 @@
       <c r="I47" s="34"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39">
@@ -3738,7 +3747,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3761,7 +3770,7 @@
         <v>36526</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3785,7 +3794,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39">
@@ -3807,7 +3816,7 @@
         <v>36557</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3825,13 +3834,13 @@
       <c r="I52" s="34"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -3845,13 +3854,13 @@
       <c r="I53" s="34"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -3867,13 +3876,13 @@
       <c r="I54" s="34"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39">
@@ -3895,7 +3904,7 @@
         <v>36586</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -3913,13 +3922,13 @@
       <c r="I56" s="34"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="39">
@@ -3941,7 +3950,7 @@
         <v>36617</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3959,13 +3968,13 @@
       <c r="I58" s="34"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39">
@@ -3985,7 +3994,7 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -3999,7 +4008,7 @@
       <c r="I60" s="34"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4007,7 +4016,7 @@
         <v>36647</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -4025,13 +4034,13 @@
       <c r="I61" s="34"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39">
@@ -4051,7 +4060,7 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4075,7 +4084,7 @@
         <v>36678</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -4099,7 +4108,7 @@
         <v>36708</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -4123,7 +4132,7 @@
         <v>36739</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -4141,13 +4150,13 @@
       <c r="I66" s="34"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39">
@@ -4169,7 +4178,7 @@
         <v>36770</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4193,7 +4202,7 @@
         <v>36800</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4217,7 +4226,7 @@
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39">
@@ -4239,7 +4248,7 @@
         <v>36831</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -4257,13 +4266,13 @@
       <c r="I71" s="34"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39">
@@ -4285,7 +4294,7 @@
         <v>36861</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -4309,7 +4318,7 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -4331,7 +4340,7 @@
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4347,13 +4356,13 @@
       <c r="I75" s="34"/>
       <c r="J75" s="11"/>
       <c r="K75" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -4372,7 +4381,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4395,7 +4404,7 @@
         <v>36892</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -4419,7 +4428,7 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
@@ -4441,7 +4450,7 @@
         <v>36923</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4465,7 +4474,7 @@
         <v>36951</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4483,13 +4492,13 @@
       <c r="I81" s="34"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
@@ -4511,7 +4520,7 @@
         <v>36982</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -4535,7 +4544,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39">
@@ -4557,7 +4566,7 @@
         <v>37012</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -4581,7 +4590,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4597,13 +4606,13 @@
       <c r="I86" s="34"/>
       <c r="J86" s="11"/>
       <c r="K86" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39">
@@ -4625,7 +4634,7 @@
         <v>37043</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -4649,7 +4658,7 @@
         <v>37073</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -4667,13 +4676,13 @@
       <c r="I89" s="34"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39">
@@ -4695,7 +4704,7 @@
         <v>37104</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -4713,7 +4722,7 @@
       <c r="I91" s="34"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4737,7 +4746,7 @@
         <v>37135</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -4755,13 +4764,13 @@
       <c r="I93" s="34"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4801,7 +4810,7 @@
         <v>37165</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -4819,13 +4828,13 @@
       <c r="I96" s="34"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39">
@@ -4847,7 +4856,7 @@
         <v>37196</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -4865,13 +4874,13 @@
       <c r="I98" s="34"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
@@ -4887,13 +4896,13 @@
       <c r="I99" s="34"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39">
@@ -4915,7 +4924,7 @@
         <v>37226</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -4936,7 +4945,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4959,7 +4968,7 @@
         <v>37257</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -4977,13 +4986,13 @@
       <c r="I103" s="34"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -5005,7 +5014,7 @@
         <v>37288</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -5029,7 +5038,7 @@
         <v>37316</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -5047,13 +5056,13 @@
       <c r="I106" s="34"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39">
@@ -5077,7 +5086,7 @@
         <v>37347</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -5093,13 +5102,13 @@
       <c r="I108" s="34"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39">
@@ -5119,7 +5128,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39">
@@ -5141,7 +5150,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
@@ -5157,13 +5166,13 @@
       <c r="I111" s="34"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39">
@@ -5185,7 +5194,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39">
@@ -5207,7 +5216,7 @@
         <v>37377</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -5225,13 +5234,13 @@
       <c r="I114" s="34"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
@@ -5273,7 +5282,7 @@
         <v>37438</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -5297,7 +5306,7 @@
         <v>37469</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -5341,7 +5350,7 @@
         <v>37530</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -5365,7 +5374,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
@@ -5387,7 +5396,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5403,7 +5412,7 @@
       <c r="I122" s="34"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5411,7 +5420,7 @@
         <v>37561</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -5435,7 +5444,7 @@
         <v>37591</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -5453,12 +5462,12 @@
       <c r="I124" s="34"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5501,7 +5510,7 @@
         <v>37653</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -5519,13 +5528,13 @@
       <c r="I127" s="34"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39">
@@ -5547,7 +5556,7 @@
         <v>37681</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -5571,7 +5580,7 @@
         <v>37712</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -5595,7 +5604,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5609,13 +5618,13 @@
       <c r="I131" s="34"/>
       <c r="J131" s="11"/>
       <c r="K131" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5631,13 +5640,13 @@
       <c r="I132" s="34"/>
       <c r="J132" s="11"/>
       <c r="K132" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="39">
@@ -5659,7 +5668,7 @@
         <v>37742</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -5721,7 +5730,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -5737,13 +5746,13 @@
       <c r="I137" s="34"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="39">
@@ -5759,7 +5768,7 @@
       <c r="I138" s="34"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5767,7 +5776,7 @@
         <v>37834</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -5789,7 +5798,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -5803,7 +5812,7 @@
       <c r="I140" s="34"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5831,7 +5840,7 @@
         <v>37895</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -5849,7 +5858,7 @@
       <c r="I142" s="34"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5873,7 +5882,7 @@
         <v>37926</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C144" s="13">
         <v>1.25</v>
@@ -5897,7 +5906,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="39">
@@ -5919,7 +5928,7 @@
         <v>37956</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -5937,13 +5946,13 @@
       <c r="I146" s="34"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39">
@@ -5962,7 +5971,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5985,7 +5994,7 @@
         <v>37987</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -6009,7 +6018,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -6025,7 +6034,7 @@
       <c r="I150" s="34"/>
       <c r="J150" s="11"/>
       <c r="K150" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6033,7 +6042,7 @@
         <v>38018</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -6057,7 +6066,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39">
@@ -6073,13 +6082,13 @@
       <c r="I152" s="34"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="39">
@@ -6101,7 +6110,7 @@
         <v>38047</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -6119,13 +6128,13 @@
       <c r="I154" s="34"/>
       <c r="J154" s="11"/>
       <c r="K154" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -6139,13 +6148,13 @@
       <c r="I155" s="34"/>
       <c r="J155" s="11"/>
       <c r="K155" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39">
@@ -6161,13 +6170,13 @@
       <c r="I156" s="34"/>
       <c r="J156" s="11"/>
       <c r="K156" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39">
@@ -6189,7 +6198,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="39">
@@ -6211,7 +6220,7 @@
         <v>38078</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -6235,7 +6244,7 @@
         <v>38108</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -6259,7 +6268,7 @@
         <v>38139</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -6277,13 +6286,13 @@
       <c r="I161" s="34"/>
       <c r="J161" s="11"/>
       <c r="K161" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39">
@@ -6305,7 +6314,7 @@
         <v>38169</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C163" s="13">
         <v>1.25</v>
@@ -6323,13 +6332,13 @@
       <c r="I163" s="34"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -6345,7 +6354,7 @@
       <c r="I164" s="34"/>
       <c r="J164" s="11"/>
       <c r="K164" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6353,7 +6362,7 @@
         <v>38200</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -6377,7 +6386,7 @@
         <v>38231</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -6421,7 +6430,7 @@
         <v>38292</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -6439,7 +6448,7 @@
       <c r="I168" s="34"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6463,7 +6472,7 @@
         <v>38322</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -6484,7 +6493,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6507,7 +6516,7 @@
         <v>38353</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -6525,13 +6534,13 @@
       <c r="I172" s="34"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39">
@@ -6553,7 +6562,7 @@
         <v>38384</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C174" s="13">
         <v>1.25</v>
@@ -6571,13 +6580,13 @@
       <c r="I174" s="34"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39">
@@ -6593,13 +6602,13 @@
       <c r="I175" s="34"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39">
@@ -6621,7 +6630,7 @@
         <v>38412</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -6637,7 +6646,7 @@
       <c r="I177" s="34"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -6645,7 +6654,7 @@
         <v>38443</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -6669,7 +6678,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39"/>
@@ -6683,13 +6692,13 @@
       <c r="I179" s="34"/>
       <c r="J179" s="11"/>
       <c r="K179" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39"/>
@@ -6705,13 +6714,13 @@
       <c r="I180" s="34"/>
       <c r="J180" s="11"/>
       <c r="K180" s="49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39">
@@ -6733,7 +6742,7 @@
         <v>38473</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -6751,13 +6760,13 @@
       <c r="I182" s="34"/>
       <c r="J182" s="11"/>
       <c r="K182" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39">
@@ -6779,7 +6788,7 @@
         <v>38504</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -6803,7 +6812,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
@@ -6817,13 +6826,13 @@
       <c r="I185" s="34"/>
       <c r="J185" s="11"/>
       <c r="K185" s="49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="39"/>
@@ -6845,7 +6854,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="39"/>
@@ -6861,13 +6870,13 @@
       <c r="I187" s="34"/>
       <c r="J187" s="11"/>
       <c r="K187" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -6883,13 +6892,13 @@
       <c r="I188" s="34"/>
       <c r="J188" s="11"/>
       <c r="K188" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C189" s="13"/>
       <c r="D189" s="39">
@@ -6911,7 +6920,7 @@
         <v>38534</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C190" s="13">
         <v>1.25</v>
@@ -6929,13 +6938,13 @@
       <c r="I190" s="34"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
@@ -6951,7 +6960,7 @@
       <c r="I191" s="34"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -6959,7 +6968,7 @@
         <v>38565</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -6977,13 +6986,13 @@
       <c r="I192" s="34"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C193" s="13"/>
       <c r="D193" s="39">
@@ -7005,7 +7014,7 @@
         <v>38596</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -7029,7 +7038,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="39"/>
@@ -7045,13 +7054,13 @@
       <c r="I195" s="34"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39">
@@ -7071,7 +7080,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39"/>
@@ -7115,7 +7124,7 @@
         <v>38657</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C199" s="13">
         <v>1.25</v>
@@ -7133,13 +7142,13 @@
       <c r="I199" s="34"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
@@ -7155,13 +7164,13 @@
       <c r="I200" s="34"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39">
@@ -7177,13 +7186,13 @@
       <c r="I201" s="34"/>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39"/>
@@ -7199,13 +7208,13 @@
       <c r="I202" s="34"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
@@ -7221,13 +7230,13 @@
       <c r="I203" s="34"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39">
@@ -7249,7 +7258,7 @@
         <v>38687</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C205" s="13">
         <v>1.25</v>
@@ -7270,7 +7279,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7293,7 +7302,7 @@
         <v>38718</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -7317,7 +7326,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -7333,13 +7342,13 @@
       <c r="I208" s="34"/>
       <c r="J208" s="11"/>
       <c r="K208" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
@@ -7361,7 +7370,7 @@
         <v>38749</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -7379,13 +7388,13 @@
       <c r="I210" s="34"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
@@ -7407,7 +7416,7 @@
         <v>38777</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -7425,13 +7434,13 @@
       <c r="I212" s="34"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="39">
@@ -7453,7 +7462,7 @@
         <v>38808</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -7477,7 +7486,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
@@ -7493,13 +7502,13 @@
       <c r="I215" s="34"/>
       <c r="J215" s="11"/>
       <c r="K215" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39"/>
@@ -7513,13 +7522,13 @@
       <c r="I216" s="34"/>
       <c r="J216" s="11"/>
       <c r="K216" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="39"/>
@@ -7541,7 +7550,7 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39"/>
@@ -7557,13 +7566,13 @@
       <c r="I218" s="34"/>
       <c r="J218" s="11"/>
       <c r="K218" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="39">
@@ -7585,7 +7594,7 @@
         <v>38838</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -7601,13 +7610,13 @@
       <c r="I220" s="34"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -7623,13 +7632,13 @@
       <c r="I221" s="34"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -7651,7 +7660,7 @@
         <v>38869</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -7677,7 +7686,7 @@
         <v>38899</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -7695,13 +7704,13 @@
       <c r="I224" s="34"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -7717,13 +7726,13 @@
       <c r="I225" s="34"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -7745,7 +7754,7 @@
         <v>38930</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -7769,7 +7778,7 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39"/>
@@ -7785,13 +7794,13 @@
       <c r="I228" s="34"/>
       <c r="J228" s="11"/>
       <c r="K228" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39">
@@ -7813,7 +7822,7 @@
         <v>38961</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -7837,7 +7846,7 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C231" s="13"/>
       <c r="D231" s="39"/>
@@ -7853,13 +7862,13 @@
       <c r="I231" s="34"/>
       <c r="J231" s="11"/>
       <c r="K231" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39">
@@ -7881,7 +7890,7 @@
         <v>38991</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -7899,13 +7908,13 @@
       <c r="I233" s="34"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39">
@@ -7921,13 +7930,13 @@
       <c r="I234" s="34"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39">
@@ -7949,7 +7958,7 @@
         <v>39022</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -7967,13 +7976,13 @@
       <c r="I236" s="34"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39">
@@ -7989,13 +7998,13 @@
       <c r="I237" s="34"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39">
@@ -8017,7 +8026,7 @@
         <v>39052</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -8035,13 +8044,13 @@
       <c r="I239" s="34"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C240" s="13"/>
       <c r="D240" s="39">
@@ -8060,7 +8069,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8083,7 +8092,7 @@
         <v>39083</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -8099,13 +8108,13 @@
       <c r="I242" s="34"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C243" s="13"/>
       <c r="D243" s="39">
@@ -8127,7 +8136,7 @@
         <v>39114</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C244" s="13">
         <v>1.25</v>
@@ -8151,7 +8160,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
@@ -8167,7 +8176,7 @@
       <c r="I245" s="34"/>
       <c r="J245" s="11"/>
       <c r="K245" s="49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -8175,7 +8184,7 @@
         <v>39142</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C246" s="13">
         <v>1.25</v>
@@ -8197,7 +8206,7 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
@@ -8219,7 +8228,7 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39">
@@ -8241,7 +8250,7 @@
         <v>39173</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -8257,13 +8266,13 @@
       <c r="I249" s="34"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39">
@@ -8285,7 +8294,7 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="39"/>
@@ -8301,13 +8310,13 @@
       <c r="I251" s="34"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
@@ -8329,7 +8338,7 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39">
@@ -8351,7 +8360,7 @@
         <v>39203</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -8369,13 +8378,13 @@
       <c r="I254" s="34"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -8397,7 +8406,7 @@
         <v>39234</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -8415,13 +8424,13 @@
       <c r="I256" s="34"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39">
@@ -8443,7 +8452,7 @@
         <v>39264</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -8463,13 +8472,13 @@
       <c r="I258" s="34"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39">
@@ -8489,7 +8498,7 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39">
@@ -8511,7 +8520,7 @@
         <v>39295</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -8535,7 +8544,7 @@
         <v>39326</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -8559,7 +8568,7 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -8581,7 +8590,7 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39">
@@ -8603,7 +8612,7 @@
         <v>39356</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
@@ -8621,13 +8630,13 @@
       <c r="I265" s="34"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -8649,7 +8658,7 @@
         <v>39387</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -8667,13 +8676,13 @@
       <c r="I267" s="34"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -8687,13 +8696,13 @@
       <c r="I268" s="34"/>
       <c r="J268" s="11"/>
       <c r="K268" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39">
@@ -8715,7 +8724,7 @@
         <v>39417</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -8736,7 +8745,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -8759,7 +8768,7 @@
         <v>39448</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -8783,7 +8792,7 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39"/>
@@ -8805,7 +8814,7 @@
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="39"/>
@@ -8819,13 +8828,13 @@
       <c r="I274" s="34"/>
       <c r="J274" s="11"/>
       <c r="K274" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -8847,7 +8856,7 @@
         <v>39479</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -8871,7 +8880,7 @@
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39">
@@ -8893,7 +8902,7 @@
         <v>39508</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -8917,7 +8926,7 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39"/>
@@ -8933,13 +8942,13 @@
       <c r="I279" s="34"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -8961,7 +8970,7 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
@@ -8975,13 +8984,13 @@
       <c r="I281" s="34"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
@@ -8997,13 +9006,13 @@
       <c r="I282" s="34"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39">
@@ -9025,7 +9034,7 @@
         <v>39539</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -9043,13 +9052,13 @@
       <c r="I284" s="34"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39">
@@ -9071,7 +9080,7 @@
         <v>39569</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -9095,7 +9104,7 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39">
@@ -9117,7 +9126,7 @@
         <v>39600</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -9141,7 +9150,7 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39"/>
@@ -9157,13 +9166,13 @@
       <c r="I289" s="34"/>
       <c r="J289" s="11"/>
       <c r="K289" s="49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -9179,13 +9188,13 @@
       <c r="I290" s="34"/>
       <c r="J290" s="11"/>
       <c r="K290" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="39">
@@ -9207,7 +9216,7 @@
         <v>39630</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -9231,7 +9240,7 @@
         <v>39661</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -9255,7 +9264,7 @@
         <v>39692</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -9279,7 +9288,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -9301,7 +9310,7 @@
         <v>39722</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -9319,7 +9328,7 @@
       <c r="I296" s="34"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -9327,7 +9336,7 @@
         <v>39753</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C297" s="13">
         <v>1.25</v>
@@ -9345,13 +9354,13 @@
       <c r="I297" s="34"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
@@ -9371,7 +9380,7 @@
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C299" s="13"/>
       <c r="D299" s="39">
@@ -9393,7 +9402,7 @@
         <v>39783</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -9411,13 +9420,13 @@
       <c r="I300" s="34"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39">
@@ -9437,7 +9446,7 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39">
@@ -9456,7 +9465,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9479,7 +9488,7 @@
         <v>39814</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -9495,7 +9504,7 @@
       <c r="I304" s="34"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -9503,7 +9512,7 @@
         <v>39845</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -9521,13 +9530,13 @@
       <c r="I305" s="34"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -9541,13 +9550,13 @@
       <c r="I306" s="34"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39">
@@ -9569,7 +9578,7 @@
         <v>39873</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -9587,13 +9596,13 @@
       <c r="I308" s="34"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9609,13 +9618,13 @@
       <c r="I309" s="34"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
@@ -9637,7 +9646,7 @@
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -9651,7 +9660,7 @@
       <c r="I311" s="34"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -9659,7 +9668,7 @@
         <v>39904</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -9677,7 +9686,7 @@
       <c r="I312" s="34"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -9701,7 +9710,7 @@
         <v>39934</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C314" s="13">
         <v>1.25</v>
@@ -9719,13 +9728,13 @@
       <c r="I314" s="34"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -9767,7 +9776,7 @@
         <v>39995</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -9785,13 +9794,13 @@
       <c r="I317" s="34"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
@@ -9813,7 +9822,7 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -9829,13 +9838,13 @@
       <c r="I319" s="34"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -9851,7 +9860,7 @@
       <c r="I320" s="34"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -9879,7 +9888,7 @@
         <v>40057</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -9897,13 +9906,13 @@
       <c r="I322" s="34"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
@@ -9917,13 +9926,13 @@
       <c r="I323" s="34"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39">
@@ -9939,7 +9948,7 @@
       <c r="I324" s="34"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -9963,7 +9972,7 @@
         <v>40087</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -9981,13 +9990,13 @@
       <c r="I326" s="34"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -10003,13 +10012,13 @@
       <c r="I327" s="34"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -10025,7 +10034,7 @@
       <c r="I328" s="34"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -10049,7 +10058,7 @@
         <v>40118</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
@@ -10067,7 +10076,7 @@
       <c r="I330" s="34"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -10091,7 +10100,7 @@
         <v>40148</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -10109,13 +10118,13 @@
       <c r="I332" s="34"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C333" s="13"/>
       <c r="D333" s="39">
@@ -10131,12 +10140,12 @@
       <c r="I333" s="34"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10159,7 +10168,7 @@
         <v>40179</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -10177,7 +10186,7 @@
       <c r="I335" s="34"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -10201,7 +10210,7 @@
         <v>40210</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -10225,7 +10234,7 @@
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C338" s="13"/>
       <c r="D338" s="39">
@@ -10241,7 +10250,7 @@
       <c r="I338" s="34"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -10265,7 +10274,7 @@
         <v>40238</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -10283,7 +10292,7 @@
       <c r="I340" s="34"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -10307,7 +10316,7 @@
         <v>40269</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -10323,13 +10332,13 @@
       <c r="I342" s="34"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -10343,13 +10352,13 @@
       <c r="I343" s="34"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -10385,7 +10394,7 @@
         <v>40299</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C346" s="13">
         <v>1.25</v>
@@ -10401,13 +10410,13 @@
       <c r="I346" s="34"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C347" s="13"/>
       <c r="D347" s="39">
@@ -10423,7 +10432,7 @@
       <c r="I347" s="34"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -10451,7 +10460,7 @@
         <v>40360</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C349" s="13">
         <v>1.25</v>
@@ -10469,13 +10478,13 @@
       <c r="I349" s="34"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39">
@@ -10491,13 +10500,13 @@
       <c r="I350" s="34"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
@@ -10513,13 +10522,13 @@
       <c r="I351" s="34"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -10535,7 +10544,7 @@
       <c r="I352" s="34"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -10559,7 +10568,7 @@
         <v>40391</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -10583,7 +10592,7 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -10599,13 +10608,13 @@
       <c r="I355" s="34"/>
       <c r="J355" s="11"/>
       <c r="K355" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39">
@@ -10623,13 +10632,13 @@
       <c r="I356" s="34"/>
       <c r="J356" s="11"/>
       <c r="K356" s="49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -10643,13 +10652,13 @@
       <c r="I357" s="34"/>
       <c r="J357" s="11"/>
       <c r="K357" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39">
@@ -10665,7 +10674,7 @@
       <c r="I358" s="34"/>
       <c r="J358" s="11"/>
       <c r="K358" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -10709,7 +10718,7 @@
         <v>40452</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C361" s="13">
         <v>1.25</v>
@@ -10727,13 +10736,13 @@
       <c r="I361" s="34"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -10749,13 +10758,13 @@
       <c r="I362" s="34"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -10771,7 +10780,7 @@
       <c r="I363" s="34"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -10795,7 +10804,7 @@
         <v>40483</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C365" s="13">
         <v>1.25</v>
@@ -10813,7 +10822,7 @@
       <c r="I365" s="34"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -10838,7 +10847,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10861,7 +10870,7 @@
         <v>40544</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -10885,7 +10894,7 @@
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
@@ -10899,13 +10908,13 @@
       <c r="I369" s="34"/>
       <c r="J369" s="11"/>
       <c r="K369" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39">
@@ -10921,13 +10930,13 @@
       <c r="I370" s="34"/>
       <c r="J370" s="11"/>
       <c r="K370" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
@@ -10943,7 +10952,7 @@
       <c r="I371" s="34"/>
       <c r="J371" s="11"/>
       <c r="K371" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -10967,7 +10976,7 @@
         <v>40575</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -10985,7 +10994,7 @@
       <c r="I373" s="34"/>
       <c r="J373" s="11"/>
       <c r="K373" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -11009,7 +11018,7 @@
         <v>40603</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -11027,13 +11036,13 @@
       <c r="I375" s="34"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
@@ -11049,13 +11058,13 @@
       <c r="I376" s="34"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
@@ -11069,13 +11078,13 @@
       <c r="I377" s="34"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
@@ -11089,7 +11098,7 @@
       <c r="I378" s="34"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -11133,7 +11142,7 @@
         <v>40664</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -11151,13 +11160,13 @@
       <c r="I381" s="34"/>
       <c r="J381" s="11"/>
       <c r="K381" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C382" s="13"/>
       <c r="D382" s="39">
@@ -11179,7 +11188,7 @@
         <v>40695</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -11203,7 +11212,7 @@
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
@@ -11225,7 +11234,7 @@
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39">
@@ -11263,7 +11272,7 @@
         <v>40725</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -11281,13 +11290,13 @@
       <c r="I387" s="34"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39">
@@ -11309,7 +11318,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39">
@@ -11331,7 +11340,7 @@
         <v>40756</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -11349,13 +11358,13 @@
       <c r="I390" s="34"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -11377,7 +11386,7 @@
         <v>40787</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -11395,13 +11404,13 @@
       <c r="I392" s="34"/>
       <c r="J392" s="11"/>
       <c r="K392" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -11417,13 +11426,13 @@
       <c r="I393" s="34"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -11445,7 +11454,7 @@
         <v>40817</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -11463,13 +11472,13 @@
       <c r="I395" s="34"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39">
@@ -11491,7 +11500,7 @@
         <v>40848</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -11509,13 +11518,13 @@
       <c r="I397" s="34"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -11531,13 +11540,13 @@
       <c r="I398" s="34"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39">
@@ -11559,7 +11568,7 @@
         <v>40878</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -11577,13 +11586,13 @@
       <c r="I400" s="34"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39">
@@ -11599,13 +11608,13 @@
       <c r="I401" s="34"/>
       <c r="J401" s="11"/>
       <c r="K401" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
@@ -11621,13 +11630,13 @@
       <c r="I402" s="34"/>
       <c r="J402" s="11"/>
       <c r="K402" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C403" s="13"/>
       <c r="D403" s="39">
@@ -11646,7 +11655,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11669,7 +11678,7 @@
         <v>40909</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -11685,13 +11694,13 @@
       <c r="I405" s="34"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -11705,13 +11714,13 @@
       <c r="I406" s="34"/>
       <c r="J406" s="11"/>
       <c r="K406" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
@@ -11733,7 +11742,7 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39">
@@ -11755,7 +11764,7 @@
         <v>40940</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -11775,13 +11784,13 @@
       <c r="I409" s="34"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -11795,13 +11804,13 @@
       <c r="I410" s="34"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C411" s="13"/>
       <c r="D411" s="39">
@@ -11823,7 +11832,7 @@
         <v>40969</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -11847,7 +11856,7 @@
         <v>41000</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
@@ -11871,7 +11880,7 @@
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39">
@@ -11887,13 +11896,13 @@
       <c r="I414" s="34"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -11909,13 +11918,13 @@
       <c r="I415" s="34"/>
       <c r="J415" s="11"/>
       <c r="K415" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
@@ -11929,13 +11938,13 @@
       <c r="I416" s="34"/>
       <c r="J416" s="11"/>
       <c r="K416" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39">
@@ -11957,7 +11966,7 @@
         <v>41030</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C418" s="13">
         <v>1.25</v>
@@ -11979,7 +11988,7 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -11995,13 +12004,13 @@
       <c r="I419" s="34"/>
       <c r="J419" s="11"/>
       <c r="K419" s="49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39">
@@ -12023,7 +12032,7 @@
         <v>41061</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -12041,13 +12050,13 @@
       <c r="I421" s="34"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -12063,13 +12072,13 @@
       <c r="I422" s="34"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39">
@@ -12091,7 +12100,7 @@
         <v>41091</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C424" s="13">
         <v>1.25</v>
@@ -12111,13 +12120,13 @@
       <c r="I424" s="34"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39">
@@ -12133,13 +12142,13 @@
       <c r="I425" s="34"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -12153,13 +12162,13 @@
       <c r="I426" s="34"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="39">
@@ -12181,7 +12190,7 @@
         <v>41122</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -12205,7 +12214,7 @@
         <v>41153</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -12221,13 +12230,13 @@
       <c r="I429" s="34"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39">
@@ -12249,7 +12258,7 @@
         <v>41183</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C431" s="13">
         <v>1.25</v>
@@ -12273,7 +12282,7 @@
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C432" s="13"/>
       <c r="D432" s="39">
@@ -12289,13 +12298,13 @@
       <c r="I432" s="34"/>
       <c r="J432" s="11"/>
       <c r="K432" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C433" s="13"/>
       <c r="D433" s="39">
@@ -12317,7 +12326,7 @@
         <v>41214</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -12335,13 +12344,13 @@
       <c r="I434" s="34"/>
       <c r="J434" s="11"/>
       <c r="K434" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C435" s="13"/>
       <c r="D435" s="39">
@@ -12363,7 +12372,7 @@
         <v>41244</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -12384,7 +12393,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12407,7 +12416,7 @@
         <v>41275</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -12431,7 +12440,7 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C439" s="13"/>
       <c r="D439" s="39">
@@ -12453,7 +12462,7 @@
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C440" s="13"/>
       <c r="D440" s="39"/>
@@ -12469,13 +12478,13 @@
       <c r="I440" s="34"/>
       <c r="J440" s="11"/>
       <c r="K440" s="49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C441" s="13"/>
       <c r="D441" s="39">
@@ -12497,7 +12506,7 @@
         <v>41306</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -12521,7 +12530,7 @@
         <v>41334</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C443" s="13">
         <v>1.25</v>
@@ -12537,13 +12546,13 @@
       <c r="I443" s="34"/>
       <c r="J443" s="11"/>
       <c r="K443" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C444" s="13"/>
       <c r="D444" s="39">
@@ -12565,7 +12574,7 @@
         <v>41365</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C445" s="13">
         <v>1.25</v>
@@ -12583,13 +12592,13 @@
       <c r="I445" s="34"/>
       <c r="J445" s="11"/>
       <c r="K445" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C446" s="13"/>
       <c r="D446" s="39"/>
@@ -12611,7 +12620,7 @@
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C447" s="13"/>
       <c r="D447" s="39">
@@ -12633,7 +12642,7 @@
         <v>41395</v>
       </c>
       <c r="B448" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C448" s="13">
         <v>1.25</v>
@@ -12677,7 +12686,7 @@
         <v>41456</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -12695,13 +12704,13 @@
       <c r="I450" s="34"/>
       <c r="J450" s="11"/>
       <c r="K450" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="39">
@@ -12723,7 +12732,7 @@
         <v>41487</v>
       </c>
       <c r="B452" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C452" s="13">
         <v>1.25</v>
@@ -12741,13 +12750,13 @@
       <c r="I452" s="34"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C453" s="13"/>
       <c r="D453" s="39">
@@ -12769,7 +12778,7 @@
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C454" s="13"/>
       <c r="D454" s="39">
@@ -12791,7 +12800,7 @@
         <v>41518</v>
       </c>
       <c r="B455" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C455" s="13">
         <v>1.25</v>
@@ -12809,13 +12818,13 @@
       <c r="I455" s="34"/>
       <c r="J455" s="11"/>
       <c r="K455" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C456" s="13"/>
       <c r="D456" s="39">
@@ -12837,7 +12846,7 @@
         <v>41548</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C457" s="13">
         <v>1.25</v>
@@ -12861,7 +12870,7 @@
         <v>41579</v>
       </c>
       <c r="B458" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C458" s="13">
         <v>1.25</v>
@@ -12879,13 +12888,13 @@
       <c r="I458" s="34"/>
       <c r="J458" s="11"/>
       <c r="K458" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C459" s="13"/>
       <c r="D459" s="39">
@@ -12901,13 +12910,13 @@
       <c r="I459" s="34"/>
       <c r="J459" s="11"/>
       <c r="K459" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="39">
@@ -12929,7 +12938,7 @@
         <v>41609</v>
       </c>
       <c r="B461" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C461" s="13">
         <v>1.25</v>
@@ -12953,7 +12962,7 @@
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39">
@@ -12972,7 +12981,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12995,7 +13004,7 @@
         <v>41640</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -13019,7 +13028,7 @@
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C465" s="13"/>
       <c r="D465" s="39">
@@ -13041,7 +13050,7 @@
         <v>41671</v>
       </c>
       <c r="B466" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C466" s="13">
         <v>1.25</v>
@@ -13065,7 +13074,7 @@
         <v>41699</v>
       </c>
       <c r="B467" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C467" s="13">
         <v>1.25</v>
@@ -13089,7 +13098,7 @@
         <v>41730</v>
       </c>
       <c r="B468" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C468" s="13">
         <v>1.25</v>
@@ -13113,7 +13122,7 @@
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C469" s="13"/>
       <c r="D469" s="39">
@@ -13129,13 +13138,13 @@
       <c r="I469" s="34"/>
       <c r="J469" s="11"/>
       <c r="K469" s="49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39">
@@ -13157,7 +13166,7 @@
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
@@ -13173,7 +13182,7 @@
       <c r="I471" s="34"/>
       <c r="J471" s="11"/>
       <c r="K471" s="49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
@@ -13181,7 +13190,7 @@
         <v>41760</v>
       </c>
       <c r="B472" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C472" s="13">
         <v>1.25</v>
@@ -13199,13 +13208,13 @@
       <c r="I472" s="34"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="39">
@@ -13227,7 +13236,7 @@
         <v>41791</v>
       </c>
       <c r="B474" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C474" s="13">
         <v>1.25</v>
@@ -13251,7 +13260,7 @@
         <v>41821</v>
       </c>
       <c r="B475" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C475" s="13">
         <v>1.25</v>
@@ -13269,13 +13278,13 @@
       <c r="I475" s="34"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="13"/>
       <c r="D476" s="39">
@@ -13297,7 +13306,7 @@
         <v>41852</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C477" s="13">
         <v>1.25</v>
@@ -13321,7 +13330,7 @@
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C478" s="13"/>
       <c r="D478" s="39"/>
@@ -13335,13 +13344,13 @@
       <c r="I478" s="34"/>
       <c r="J478" s="11"/>
       <c r="K478" s="49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C479" s="13"/>
       <c r="D479" s="39">
@@ -13363,7 +13372,7 @@
         <v>41883</v>
       </c>
       <c r="B480" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C480" s="13">
         <v>1.25</v>
@@ -13387,7 +13396,7 @@
         <v>41913</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C481" s="13">
         <v>1.25</v>
@@ -13411,7 +13420,7 @@
         <v>41944</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -13429,13 +13438,13 @@
       <c r="I482" s="34"/>
       <c r="J482" s="11"/>
       <c r="K482" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C483" s="13"/>
       <c r="D483" s="39">
@@ -13457,7 +13466,7 @@
         <v>41974</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -13475,13 +13484,13 @@
       <c r="I484" s="34"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
@@ -13497,13 +13506,13 @@
       <c r="I485" s="34"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
@@ -13519,13 +13528,13 @@
       <c r="I486" s="34"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C487" s="13"/>
       <c r="D487" s="39">
@@ -13544,7 +13553,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13567,7 +13576,7 @@
         <v>42005</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C489" s="13">
         <v>1.25</v>
@@ -13583,13 +13592,13 @@
       <c r="I489" s="34"/>
       <c r="J489" s="11"/>
       <c r="K489" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39">
@@ -13611,7 +13620,7 @@
         <v>42036</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C491" s="13">
         <v>1.25</v>
@@ -13635,7 +13644,7 @@
         <v>42064</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
@@ -13651,13 +13660,13 @@
       <c r="I492" s="34"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39">
@@ -13679,7 +13688,7 @@
         <v>42095</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C494" s="13">
         <v>1.25</v>
@@ -13697,13 +13706,13 @@
       <c r="I494" s="34"/>
       <c r="J494" s="11"/>
       <c r="K494" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C495" s="13"/>
       <c r="D495" s="39">
@@ -13725,7 +13734,7 @@
         <v>42125</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -13749,7 +13758,7 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39">
@@ -13771,7 +13780,7 @@
         <v>42156</v>
       </c>
       <c r="B498" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C498" s="13">
         <v>1.25</v>
@@ -13789,13 +13798,13 @@
       <c r="I498" s="34"/>
       <c r="J498" s="11"/>
       <c r="K498" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39">
@@ -13817,7 +13826,7 @@
         <v>42186</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
@@ -13835,13 +13844,13 @@
       <c r="I500" s="34"/>
       <c r="J500" s="11"/>
       <c r="K500" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39">
@@ -13863,7 +13872,7 @@
         <v>42217</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
@@ -13887,7 +13896,7 @@
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39">
@@ -13909,7 +13918,7 @@
         <v>42248</v>
       </c>
       <c r="B504" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C504" s="13">
         <v>1.25</v>
@@ -13933,7 +13942,7 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C505" s="13"/>
       <c r="D505" s="39">
@@ -13955,7 +13964,7 @@
         <v>42278</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C506" s="13">
         <v>1.25</v>
@@ -13973,13 +13982,13 @@
       <c r="I506" s="34"/>
       <c r="J506" s="11"/>
       <c r="K506" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39">
@@ -14001,7 +14010,7 @@
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39">
@@ -14023,7 +14032,7 @@
         <v>42309</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
@@ -14047,7 +14056,7 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C510" s="13"/>
       <c r="D510" s="39">
@@ -14069,7 +14078,7 @@
         <v>42339</v>
       </c>
       <c r="B511" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C511" s="13">
         <v>1.25</v>
@@ -14090,7 +14099,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14111,7 +14120,7 @@
         <v>42370</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C513" s="13">
         <v>1.25</v>
@@ -14129,13 +14138,13 @@
       <c r="I513" s="34"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C514" s="13"/>
       <c r="D514" s="39"/>
@@ -14149,7 +14158,7 @@
       <c r="I514" s="34"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
@@ -14177,7 +14186,7 @@
         <v>42430</v>
       </c>
       <c r="B516" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C516" s="13">
         <v>1.25</v>
@@ -14195,13 +14204,13 @@
       <c r="I516" s="34"/>
       <c r="J516" s="11"/>
       <c r="K516" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C517" s="13"/>
       <c r="D517" s="39">
@@ -14217,7 +14226,7 @@
       <c r="I517" s="34"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -14225,7 +14234,7 @@
         <v>42461</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -14241,13 +14250,13 @@
       <c r="I518" s="34"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39">
@@ -14263,13 +14272,13 @@
       <c r="I519" s="34"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
@@ -14285,7 +14294,7 @@
       <c r="I520" s="34"/>
       <c r="J520" s="11"/>
       <c r="K520" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -14313,7 +14322,7 @@
         <v>42522</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
@@ -14329,7 +14338,7 @@
       <c r="I522" s="34"/>
       <c r="J522" s="11"/>
       <c r="K522" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
@@ -14353,7 +14362,7 @@
         <v>42552</v>
       </c>
       <c r="B524" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C524" s="13">
         <v>1.25</v>
@@ -14371,7 +14380,7 @@
       <c r="I524" s="34"/>
       <c r="J524" s="11"/>
       <c r="K524" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -14397,7 +14406,7 @@
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39">
@@ -14419,7 +14428,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -14435,7 +14444,7 @@
       <c r="I527" s="34"/>
       <c r="J527" s="11"/>
       <c r="K527" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
@@ -14443,7 +14452,7 @@
         <v>42614</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C528" s="13">
         <v>1.25</v>
@@ -14465,7 +14474,7 @@
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -14481,7 +14490,7 @@
       <c r="I529" s="34"/>
       <c r="J529" s="11"/>
       <c r="K529" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -14489,7 +14498,7 @@
         <v>42644</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
@@ -14507,7 +14516,7 @@
       <c r="I530" s="34"/>
       <c r="J530" s="11"/>
       <c r="K530" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
@@ -14531,7 +14540,7 @@
         <v>42675</v>
       </c>
       <c r="B532" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C532" s="13">
         <v>1.25</v>
@@ -14555,7 +14564,7 @@
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
@@ -14571,7 +14580,7 @@
       <c r="I533" s="34"/>
       <c r="J533" s="11"/>
       <c r="K533" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
@@ -14595,7 +14604,7 @@
         <v>42705</v>
       </c>
       <c r="B535" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C535" s="13">
         <v>1.25</v>
@@ -14619,7 +14628,7 @@
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C536" s="13"/>
       <c r="D536" s="39">
@@ -14635,13 +14644,13 @@
       <c r="I536" s="34"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -14657,12 +14666,12 @@
       <c r="I537" s="34"/>
       <c r="J537" s="11"/>
       <c r="K537" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14683,7 +14692,7 @@
         <v>42736</v>
       </c>
       <c r="B539" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C539" s="13">
         <v>1.25</v>
@@ -14699,7 +14708,7 @@
       <c r="I539" s="34"/>
       <c r="J539" s="11"/>
       <c r="K539" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
@@ -14747,7 +14756,7 @@
         <v>42826</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C542" s="13">
         <v>1.25</v>
@@ -14767,7 +14776,7 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -14781,13 +14790,13 @@
       <c r="I543" s="34"/>
       <c r="J543" s="11"/>
       <c r="K543" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
@@ -14809,7 +14818,7 @@
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
@@ -14825,7 +14834,7 @@
       <c r="I545" s="34"/>
       <c r="J545" s="11"/>
       <c r="K545" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
@@ -14873,7 +14882,7 @@
         <v>42917</v>
       </c>
       <c r="B548" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C548" s="13">
         <v>1.25</v>
@@ -14897,7 +14906,7 @@
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
@@ -14913,7 +14922,7 @@
       <c r="I549" s="34"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -14921,7 +14930,7 @@
         <v>42948</v>
       </c>
       <c r="B550" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C550" s="13">
         <v>1.25</v>
@@ -14939,7 +14948,7 @@
       <c r="I550" s="34"/>
       <c r="J550" s="11"/>
       <c r="K550" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
@@ -14947,7 +14956,7 @@
         <v>42979</v>
       </c>
       <c r="B551" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C551" s="13">
         <v>1.25</v>
@@ -14965,13 +14974,13 @@
       <c r="I551" s="34"/>
       <c r="J551" s="11"/>
       <c r="K551" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C552" s="13"/>
       <c r="D552" s="39">
@@ -14987,7 +14996,7 @@
       <c r="I552" s="34"/>
       <c r="J552" s="11"/>
       <c r="K552" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
@@ -15035,7 +15044,7 @@
         <v>43070</v>
       </c>
       <c r="B555" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C555" s="13">
         <v>1.25</v>
@@ -15053,12 +15062,12 @@
       <c r="I555" s="34"/>
       <c r="J555" s="11"/>
       <c r="K555" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15079,7 +15088,7 @@
         <v>43101</v>
       </c>
       <c r="B557" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C557" s="13">
         <v>1.25</v>
@@ -15095,7 +15104,7 @@
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
@@ -15103,7 +15112,7 @@
         <v>43132</v>
       </c>
       <c r="B558" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C558" s="13">
         <v>1.25</v>
@@ -15121,13 +15130,13 @@
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -15141,13 +15150,13 @@
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
       <c r="K559" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -15163,7 +15172,7 @@
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
       <c r="K560" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
@@ -15191,7 +15200,7 @@
         <v>43191</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -15205,13 +15214,13 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C563" s="13">
         <v>1.25</v>
@@ -15229,7 +15238,7 @@
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
@@ -15257,7 +15266,7 @@
         <v>43252</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C565" s="13">
         <v>1.25</v>
@@ -15275,13 +15284,13 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39">
@@ -15297,7 +15306,7 @@
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
       <c r="K566" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
@@ -15305,7 +15314,7 @@
         <v>43282</v>
       </c>
       <c r="B567" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C567" s="13">
         <v>1.25</v>
@@ -15323,7 +15332,7 @@
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
@@ -15351,7 +15360,7 @@
         <v>43344</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C569" s="13">
         <v>1.25</v>
@@ -15369,7 +15378,7 @@
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
       <c r="K569" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
@@ -15377,7 +15386,7 @@
         <v>43374</v>
       </c>
       <c r="B570" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C570" s="13">
         <v>1.25</v>
@@ -15395,7 +15404,7 @@
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
       <c r="K570" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
@@ -15440,7 +15449,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15481,7 +15490,7 @@
         <v>43497</v>
       </c>
       <c r="B575" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
@@ -15497,13 +15506,13 @@
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
       <c r="K575" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C576" s="13">
         <v>1.25</v>
@@ -15551,7 +15560,7 @@
         <v>43556</v>
       </c>
       <c r="B578" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C578" s="13">
         <v>1.25</v>
@@ -15593,7 +15602,7 @@
         <v>43252</v>
       </c>
       <c r="B580" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -15607,13 +15616,13 @@
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
       <c r="K580" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C581" s="13">
         <v>1.25</v>
@@ -15629,7 +15638,7 @@
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
       <c r="K581" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
@@ -15637,7 +15646,7 @@
         <v>43647</v>
       </c>
       <c r="B582" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C582" s="13">
         <v>1.25</v>
@@ -15655,13 +15664,13 @@
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
       <c r="K582" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
@@ -15683,7 +15692,7 @@
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -15699,7 +15708,7 @@
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
@@ -15743,7 +15752,7 @@
         <v>43709</v>
       </c>
       <c r="B587" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C587" s="13">
         <v>1.25</v>
@@ -15767,7 +15776,7 @@
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
@@ -15789,7 +15798,7 @@
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -15805,13 +15814,13 @@
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
       <c r="K589" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C590" s="13"/>
       <c r="D590" s="39">
@@ -15827,7 +15836,7 @@
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
       <c r="K590" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
@@ -15875,7 +15884,7 @@
         <v>43800</v>
       </c>
       <c r="B593" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C593" s="13">
         <v>1.25</v>
@@ -15893,12 +15902,12 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15919,7 +15928,7 @@
         <v>43831</v>
       </c>
       <c r="B595" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
@@ -15939,7 +15948,7 @@
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C596" s="13">
         <v>1.25</v>
@@ -15957,7 +15966,7 @@
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
       <c r="K596" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -15965,7 +15974,7 @@
         <v>43862</v>
       </c>
       <c r="B597" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C597" s="13">
         <v>1.25</v>
@@ -15983,7 +15992,7 @@
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
       <c r="K597" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
@@ -16071,7 +16080,7 @@
         <v>44013</v>
       </c>
       <c r="B602" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C602" s="13">
         <v>1.25</v>
@@ -16087,13 +16096,13 @@
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
       <c r="K602" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C603" s="13"/>
       <c r="D603" s="39">
@@ -16109,13 +16118,13 @@
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
       <c r="K603" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -16131,13 +16140,13 @@
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
       <c r="K604" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C605" s="13"/>
       <c r="D605" s="39">
@@ -16159,7 +16168,7 @@
         <v>44044</v>
       </c>
       <c r="B606" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C606" s="13">
         <v>1.25</v>
@@ -16177,13 +16186,13 @@
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C607" s="13"/>
       <c r="D607" s="39">
@@ -16207,7 +16216,7 @@
         <v>44075</v>
       </c>
       <c r="B608" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C608" s="13">
         <v>1.25</v>
@@ -16233,7 +16242,7 @@
         <v>44105</v>
       </c>
       <c r="B609" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C609" s="13">
         <v>1.25</v>
@@ -16257,7 +16266,7 @@
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
@@ -16273,7 +16282,7 @@
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
       <c r="K610" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
@@ -16301,7 +16310,7 @@
         <v>44166</v>
       </c>
       <c r="B612" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C612" s="13">
         <v>1.25</v>
@@ -16319,12 +16328,12 @@
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
       <c r="K612" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16465,7 +16474,7 @@
         <v>44378</v>
       </c>
       <c r="B620" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C620" s="13">
         <v>1.25</v>
@@ -16481,7 +16490,7 @@
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
       <c r="K620" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
@@ -16509,7 +16518,7 @@
         <v>44440</v>
       </c>
       <c r="B622" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C622" s="13">
         <v>1.25</v>
@@ -16527,13 +16536,13 @@
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
       <c r="K622" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -16547,13 +16556,13 @@
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
       <c r="K623" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
@@ -16567,7 +16576,7 @@
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
       <c r="K624" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
@@ -16595,7 +16604,7 @@
         <v>44501</v>
       </c>
       <c r="B626" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C626" s="13">
         <v>1.25</v>
@@ -16613,13 +16622,13 @@
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
       <c r="K626" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C627" s="13"/>
       <c r="D627" s="39">
@@ -16635,7 +16644,7 @@
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
       <c r="K627" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
@@ -16643,7 +16652,7 @@
         <v>44531</v>
       </c>
       <c r="B628" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C628" s="13">
         <v>1.25</v>
@@ -16667,7 +16676,7 @@
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C629" s="13"/>
       <c r="D629" s="39">
@@ -16686,7 +16695,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16747,7 +16756,7 @@
         <v>44621</v>
       </c>
       <c r="B633" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C633" s="13">
         <v>1.25</v>
@@ -16769,7 +16778,7 @@
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C634" s="13"/>
       <c r="D634" s="39">
@@ -16777,7 +16786,7 @@
       </c>
       <c r="E634" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.459899999999777</v>
+        <v>38.356899999999769</v>
       </c>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
@@ -16794,7 +16803,7 @@
         <v>44652</v>
       </c>
       <c r="B635" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C635" s="13">
         <v>1.25</v>
@@ -16816,7 +16825,7 @@
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C636" s="13"/>
       <c r="D636" s="39">
@@ -16824,7 +16833,7 @@
       </c>
       <c r="E636" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.459899999999777</v>
+        <v>38.356899999999769</v>
       </c>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
@@ -16841,7 +16850,7 @@
         <v>44682</v>
       </c>
       <c r="B637" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C637" s="13">
         <v>1.25</v>
@@ -16865,7 +16874,7 @@
         <v>44713</v>
       </c>
       <c r="B638" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C638" s="13">
         <v>1.25</v>
@@ -16883,13 +16892,13 @@
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
       <c r="K638" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
@@ -16909,7 +16918,7 @@
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
@@ -16925,13 +16934,13 @@
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
       <c r="K640" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C641" s="13"/>
       <c r="D641" s="39"/>
@@ -16945,13 +16954,13 @@
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
       <c r="K641" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C642" s="13"/>
       <c r="D642" s="39"/>
@@ -16973,7 +16982,7 @@
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C643" s="13"/>
       <c r="D643" s="39">
@@ -16995,7 +17004,7 @@
         <v>44743</v>
       </c>
       <c r="B644" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C644" s="13">
         <v>1.25</v>
@@ -17019,7 +17028,7 @@
         <v>44774</v>
       </c>
       <c r="B645" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C645" s="13">
         <v>1.25</v>
@@ -17043,7 +17052,7 @@
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C646" s="13"/>
       <c r="D646" s="39">
@@ -17065,7 +17074,7 @@
         <v>44805</v>
       </c>
       <c r="B647" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C647" s="13">
         <v>1.25</v>
@@ -17089,7 +17098,7 @@
         <v>44835</v>
       </c>
       <c r="B648" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C648" s="13">
         <v>1.25</v>
@@ -17107,13 +17116,13 @@
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
       <c r="K648" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C649" s="13"/>
       <c r="D649" s="39">
@@ -17135,7 +17144,7 @@
         <v>44866</v>
       </c>
       <c r="B650" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C650" s="13">
         <v>1.25</v>
@@ -17159,7 +17168,7 @@
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C651" s="13"/>
       <c r="D651" s="39">
@@ -17181,7 +17190,7 @@
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C652" s="13"/>
       <c r="D652" s="39"/>
@@ -17203,7 +17212,7 @@
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C653" s="13"/>
       <c r="D653" s="39">
@@ -17225,7 +17234,7 @@
         <v>44896</v>
       </c>
       <c r="B654" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C654" s="13">
         <v>1.25</v>
@@ -17243,13 +17252,13 @@
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
       <c r="K654" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C655" s="13"/>
       <c r="D655" s="39">
@@ -17268,7 +17277,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17289,7 +17298,7 @@
         <v>44927</v>
       </c>
       <c r="B657" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C657" s="13">
         <v>1.25</v>
@@ -17312,11 +17321,15 @@
       <c r="A658" s="40">
         <v>44958</v>
       </c>
-      <c r="B658" s="20"/>
+      <c r="B658" s="20" t="s">
+        <v>533</v>
+      </c>
       <c r="C658" s="13">
         <v>1.25</v>
       </c>
-      <c r="D658" s="39"/>
+      <c r="D658" s="39">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E658" s="52"/>
       <c r="F658" s="20"/>
       <c r="G658" s="13">
@@ -17333,7 +17346,7 @@
         <v>44986</v>
       </c>
       <c r="B659" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C659" s="13">
         <v>1.25</v>
@@ -17355,117 +17368,121 @@
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C660" s="13">
-        <v>1.25</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C660" s="13"/>
       <c r="D660" s="39">
-        <v>3</v>
-      </c>
-      <c r="E660" s="52"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E660" s="52">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>38.356899999999769</v>
+      </c>
       <c r="F660" s="20"/>
-      <c r="G660" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K660" s="49"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B661" s="20" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C661" s="13">
         <v>1.25</v>
       </c>
-      <c r="D661" s="39"/>
+      <c r="D661" s="39">
+        <v>3</v>
+      </c>
       <c r="E661" s="52"/>
       <c r="F661" s="20"/>
       <c r="G661" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H661" s="39">
-        <v>3</v>
-      </c>
+      <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
       <c r="K661" s="20" t="s">
-        <v>513</v>
+        <v>98</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B662" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B662" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C662" s="13">
         <v>1.25</v>
       </c>
       <c r="D662" s="39"/>
-      <c r="E662" s="9"/>
+      <c r="E662" s="52"/>
       <c r="F662" s="20"/>
       <c r="G662" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H662" s="39"/>
+      <c r="H662" s="39">
+        <v>3</v>
+      </c>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
+      <c r="K662" s="20" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C663" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D663" s="39"/>
-      <c r="E663" s="9"/>
+        <v>179</v>
+      </c>
+      <c r="C663" s="13"/>
+      <c r="D663" s="39">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="E663" s="52">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>38.356899999999769</v>
+      </c>
       <c r="F663" s="20"/>
-      <c r="G663" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H663" s="39">
-        <v>3</v>
-      </c>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20" t="s">
-        <v>515</v>
-      </c>
+      <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>45078</v>
+      </c>
       <c r="B664" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="C664" s="13"/>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
@@ -17474,9 +17491,11 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B665" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B665" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C665" s="13">
         <v>1.25</v>
       </c>
@@ -17487,163 +17506,165 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H665" s="39"/>
+      <c r="H665" s="39">
+        <v>3</v>
+      </c>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="20" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C666" s="13">
-        <v>1.25</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C666" s="13"/>
       <c r="D666" s="39">
-        <v>2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20" t="s">
-        <v>524</v>
-      </c>
+      <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
-      <c r="B667" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C667" s="13"/>
+      <c r="A667" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B667" s="20"/>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H667" s="39">
-        <v>1</v>
-      </c>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="49">
-        <v>45196</v>
-      </c>
+      <c r="K667" s="20"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40"/>
+      <c r="A668" s="40">
+        <v>45170</v>
+      </c>
       <c r="B668" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="C668" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="39">
-        <v>0.36499999999999999</v>
+        <v>2</v>
       </c>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="49"/>
+      <c r="K668" s="20" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="C669" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D669" s="39">
-        <v>0.32100000000000001</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C669" s="13"/>
+      <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H669" s="39"/>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H669" s="39">
+        <v>1</v>
+      </c>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="49">
+        <v>45196</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="C670" s="13">
-        <v>1.25</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C670" s="13"/>
       <c r="D670" s="39">
-        <v>0.42699999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
-      <c r="K670" s="20"/>
+      <c r="K670" s="49"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B671" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C671" s="13"/>
-      <c r="D671" s="39"/>
+        <v>527</v>
+      </c>
+      <c r="C671" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D671" s="39">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G671" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
-      <c r="K671" s="20" t="s">
+      <c r="K671" s="20"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A672" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B672" s="20" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A672" s="40"/>
-      <c r="B672" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C672" s="13"/>
+      <c r="C672" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D672" s="39">
-        <v>0.14000000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G672" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H672" s="39"/>
       <c r="I672" s="9"/>
@@ -17651,10 +17672,12 @@
       <c r="K672" s="20"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A673" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B673" s="20"/>
+      <c r="A673" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B673" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="C673" s="13"/>
       <c r="D673" s="39"/>
       <c r="E673" s="9"/>
@@ -17666,15 +17689,19 @@
       <c r="H673" s="39"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
-      <c r="K673" s="20"/>
+      <c r="K673" s="20" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A674" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B674" s="20"/>
+      <c r="A674" s="40"/>
+      <c r="B674" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="C674" s="13"/>
-      <c r="D674" s="39"/>
+      <c r="D674" s="39">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
       <c r="G674" s="13" t="str">
@@ -17687,8 +17714,8 @@
       <c r="K674" s="20"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A675" s="40">
-        <v>45323</v>
+      <c r="A675" s="48" t="s">
+        <v>524</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17706,7 +17733,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17724,7 +17751,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17742,7 +17769,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17760,7 +17787,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17778,7 +17805,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17796,7 +17823,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17814,7 +17841,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17832,7 +17859,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17850,7 +17877,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17867,7 +17894,9 @@
       <c r="K684" s="20"/>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A685" s="40"/>
+      <c r="A685" s="40">
+        <v>45566</v>
+      </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
       <c r="D685" s="39"/>
@@ -17883,7 +17912,9 @@
       <c r="K685" s="20"/>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40"/>
+      <c r="A686" s="40">
+        <v>45597</v>
+      </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
       <c r="D686" s="39"/>
@@ -17915,20 +17946,52 @@
       <c r="K687" s="20"/>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" s="41"/>
-      <c r="B688" s="15"/>
-      <c r="C688" s="42"/>
-      <c r="D688" s="43"/>
+      <c r="A688" s="40"/>
+      <c r="B688" s="20"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="39"/>
       <c r="E688" s="9"/>
-      <c r="F688" s="15"/>
-      <c r="G688" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H688" s="43"/>
+      <c r="F688" s="20"/>
+      <c r="G688" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H688" s="39"/>
       <c r="I688" s="9"/>
-      <c r="J688" s="12"/>
-      <c r="K688" s="15"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="20"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="40"/>
+      <c r="B689" s="20"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="39"/>
+      <c r="E689" s="9"/>
+      <c r="F689" s="20"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="39"/>
+      <c r="I689" s="9"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="20"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A690" s="41"/>
+      <c r="B690" s="15"/>
+      <c r="C690" s="42"/>
+      <c r="D690" s="43"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="15"/>
+      <c r="G690" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="43"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="12"/>
+      <c r="K690" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18039,13 +18102,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -18069,7 +18134,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -18094,7 +18159,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>120.69289999999978</v>
+        <v>119.58989999999977</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
